--- a/Ángel Martínez Noe Cristobal 20212.xlsx
+++ b/Ángel Martínez Noe Cristobal 20212.xlsx
@@ -5299,7 +5299,7 @@
         <v>652</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5803,7 +5803,7 @@
         <v>719</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
